--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.162</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.384</v>
+        <v>15.332</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.313</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.133</v>
+        <v>13.332</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.293</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.04</v>
+        <v>9.704000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.72567247489399</v>
+        <v>8.079053057644277</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.66190546651459</v>
+        <v>11.72226901590088</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.01931154354797</v>
+        <v>17.17071786937871</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.28308387937524</v>
+        <v>-0.7681787558368818</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.66454008000447</v>
+        <v>13.22139120819239</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.22962395848114</v>
+        <v>17.75870872917767</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20.12434053808033</v>
+        <v>-0.2197225924278392</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.66167683485595</v>
+        <v>25.48461064034851</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.96416511938759</v>
+        <v>28.09494359547489</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.49140606678533</v>
+        <v>16.0154194087007</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.57253497787878</v>
+        <v>21.61733672092373</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.18607591771183</v>
+        <v>24.33893364645673</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.43490182324206</v>
+        <v>5.945428952933103</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.6889518223459</v>
+        <v>10.57858342265672</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.84861708774994</v>
+        <v>20.84973097916668</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.88686611413892</v>
+        <v>15.01945431599674</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.98275616664068</v>
+        <v>21.97815192172985</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.40459459637515</v>
+        <v>30.5600037962312</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.32851200836944</v>
+        <v>4.55840764690635</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.88257397672448</v>
+        <v>16.84267344513563</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.5142198900898</v>
+        <v>25.71435030145506</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.26597792502831</v>
+        <v>0.162845780018305</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.96312411029763</v>
+        <v>26.84390629338725</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.7256765775317</v>
+        <v>9.160994746539931</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.66192459202971</v>
+        <v>22.16227399400222</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.01933623918354</v>
+        <v>25.18877651114483</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.28309359595616</v>
+        <v>3.396417169744385</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.66456553497509</v>
+        <v>27.22065588018171</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.22965532478498</v>
+        <v>30.88446340121667</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20.12435358208041</v>
+        <v>4.953252586400485</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.66170445029628</v>
+        <v>41.48482054245969</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.96419823272435</v>
+        <v>42.64266197613441</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.49143584646799</v>
+        <v>42.24355708922596</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.57256978573604</v>
+        <v>46.50083965045178</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.18611349766697</v>
+        <v>49.89356868618768</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.43492167847898</v>
+        <v>17.40071323672243</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.68898605070698</v>
+        <v>38.11384369067045</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.84865655253848</v>
+        <v>45.37205485843023</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.88687624200504</v>
+        <v>20.25240968842121</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.98278151139074</v>
+        <v>37.31998442433894</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.4046256052707</v>
+        <v>44.80670485206082</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>20.32852759262818</v>
+        <v>14.24395316999815</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.88260551128324</v>
+        <v>37.06543352334748</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.51425743035563</v>
+        <v>46.57103083744596</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>34.96315791157384</v>
+        <v>50.44079673674366</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.72616728497531</v>
+        <v>3.27606179470823</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.66240673746012</v>
+        <v>17.59112996926473</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.01981350701737</v>
+        <v>22.15638951178773</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.28359795532974</v>
+        <v>0.0786040413840432</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.66506096046988</v>
+        <v>24.83488945406876</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.23014554291364</v>
+        <v>30.25503848626463</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.12485520896023</v>
+        <v>1.287980825643078</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.66219783806087</v>
+        <v>39.21140345306819</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.96468679948526</v>
+        <v>42.25889421200836</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.49192979189243</v>
+        <v>40.79015164880303</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.57305998681033</v>
+        <v>43.96180829244759</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.18660138395152</v>
+        <v>49.42727910809344</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.43541975686178</v>
+        <v>10.00593632504607</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.6894760988797</v>
+        <v>34.10292352600942</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.84914188315734</v>
+        <v>42.88343915761581</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.88736807612155</v>
+        <v>13.21919550326036</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.98326463784703</v>
+        <v>31.55642999582824</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.40510382031229</v>
+        <v>41.02184816369606</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.32903342505514</v>
+        <v>9.813353193544462</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.88310225048612</v>
+        <v>33.50396123422334</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.51474893034639</v>
+        <v>45.25734661986533</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24.26649998736337</v>
+        <v>7.489332458210558</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.96365255296707</v>
+        <v>47.27322162253145</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>17.72634854677995</v>
+        <v>2.100012943838468</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.66260027144239</v>
+        <v>14.2688120618447</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>32.02000896281022</v>
+        <v>22.93107437326029</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16.28377446335869</v>
+        <v>1.813242133455478</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.66525011482337</v>
+        <v>24.6046525752374</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.23033673287288</v>
+        <v>33.18250700141346</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.12503795470583</v>
+        <v>0.8270045318791723</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.66239230264424</v>
+        <v>36.24848524888895</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.96488312755388</v>
+        <v>42.75461193899406</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.49213031686605</v>
+        <v>32.09649961824425</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.57326542559201</v>
+        <v>36.31753259933515</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.18680766697376</v>
+        <v>42.9216079386303</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.4356122134037</v>
+        <v>7.1854905996579</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.68967972214073</v>
+        <v>27.00728858656243</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.84934727527749</v>
+        <v>40.24776534139048</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>21.88755517726896</v>
+        <v>11.32437546370213</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>32.98346421309633</v>
+        <v>26.86653173948048</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.4053053867925</v>
+        <v>39.7312689621148</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20.32921575142387</v>
+        <v>9.430730709963829</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.88329743779093</v>
+        <v>30.49897082059417</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.51494622898662</v>
+        <v>44.59789337409248</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24.2666886653046</v>
+        <v>4.432774958342893</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.96385314869806</v>
+        <v>40.89038677230118</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.32702621417927</v>
+        <v>37.44743533804262</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.9243010640066</v>
+        <v>19.18509041619516</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.08838807505196</v>
+        <v>32.5019744501694</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.73047725639275</v>
+        <v>38.40937687875495</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.79152766012595</v>
+        <v>5.27837992817874</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>41.21691142550522</v>
+        <v>23.75675310843312</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>44.42475921192774</v>
+        <v>33.1662191729381</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.19115952253033</v>
+        <v>7.615906020987669</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>40.31858069595403</v>
+        <v>19.76278851656213</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.71584023570741</v>
+        <v>27.57879313418156</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.90418874936962</v>
+        <v>-4.813805675259712</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>39.49332398209452</v>
+        <v>13.13671518522256</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.10185712304082</v>
+        <v>21.07827776687083</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.84787620169864</v>
+        <v>-6.383441848099064</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>42.57812866186207</v>
+        <v>27.4035672106578</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.91903197275878</v>
+        <v>39.14154816631887</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.70583357753864</v>
+        <v>29.59116099473454</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.86312268266686</v>
+        <v>42.48235747074145</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51.49804169406843</v>
+        <v>51.07984660477425</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.53911451299927</v>
+        <v>0.1824001246470779</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>48.98995966494525</v>
+        <v>27.67656325843908</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.17122781045514</v>
+        <v>38.67766711025826</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.32706560143238</v>
+        <v>61.1247731753611</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.92433704563456</v>
+        <v>51.08952668615268</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.08842917903394</v>
+        <v>62.66021952283771</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.73052117872879</v>
+        <v>69.69606836423316</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.79155367856917</v>
+        <v>22.83359543315999</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.21695202369195</v>
+        <v>58.50685998233794</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>44.42480511853714</v>
+        <v>65.76836072212635</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.19118814471331</v>
+        <v>20.70056946940511</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.31862463854173</v>
+        <v>43.49685051738086</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.71588975733493</v>
+        <v>49.16661965636902</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.90422323286776</v>
+        <v>12.88095063552138</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.49337452638385</v>
+        <v>42.12953745912657</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.10191358664477</v>
+        <v>49.5294828946974</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.84791418078466</v>
+        <v>13.49545547132471</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.57818151173429</v>
+        <v>59.66821020297928</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.91909032708247</v>
+        <v>70.28449473201997</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.70588889149958</v>
+        <v>71.23559947811785</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>49.86318313109199</v>
+        <v>82.33136600258322</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.49810492148349</v>
+        <v>91.68780323447945</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.53915972396908</v>
+        <v>27.02476311567478</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.99001954928758</v>
+        <v>72.34474394738768</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.17129291959421</v>
+        <v>80.30936397347764</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>38.32755539262428</v>
+        <v>60.33965288868188</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.92483214719918</v>
+        <v>47.76518143408316</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.08892044202084</v>
+        <v>58.01458926773131</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43.73101010344881</v>
+        <v>67.46402284671336</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.79205296757586</v>
+        <v>14.6011827977174</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>41.21744312148311</v>
+        <v>53.73582376393628</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.19167034020859</v>
+        <v>15.70609944299858</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>40.31909807978849</v>
+        <v>40.13632493164579</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.71635829144383</v>
+        <v>47.4801480004441</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.90471896907995</v>
+        <v>10.50778817757424</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.49386111782291</v>
+        <v>41.058192242085</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>43.10239494060345</v>
+        <v>50.37341033822401</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.84840713389173</v>
+        <v>11.14060938993612</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.57866602807572</v>
+        <v>59.06614565867707</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.91956999782499</v>
+        <v>71.71602245623242</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.70637357102068</v>
+        <v>70.69152034507184</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>49.86366397816411</v>
+        <v>80.70855609781938</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>51.49858342156081</v>
+        <v>92.34367796414386</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>38.53964867374433</v>
+        <v>21.24255435632591</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>48.99050026140112</v>
+        <v>70.49301483286061</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.17176891194836</v>
+        <v>80.00648804578671</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>38.3277579207391</v>
+        <v>56.64704170034079</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.92503910215375</v>
+        <v>35.32388408239939</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.08913241235587</v>
+        <v>46.68473481612435</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.73122294328397</v>
+        <v>57.11114338470401</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.79225169224076</v>
+        <v>9.550850544227618</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.21765322834136</v>
+        <v>43.70254550479018</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>44.42550340997434</v>
+        <v>56.63518062953136</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.19185602643051</v>
+        <v>15.40619537231288</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>40.31929620081726</v>
+        <v>37.16088589491295</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>43.71655842719113</v>
+        <v>48.63603355315294</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.90490008415944</v>
+        <v>11.68315952201658</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.49405505578266</v>
+        <v>39.57636886585652</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>43.10259101826186</v>
+        <v>52.12068336138404</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.84859458072165</v>
+        <v>9.862822993655673</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.57886535726439</v>
+        <v>54.55044299387851</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>45.91977128381498</v>
+        <v>70.70590384090872</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.70657935947497</v>
+        <v>59.74476245323845</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.86387475278921</v>
+        <v>71.4579644589067</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.4987950836102</v>
+        <v>84.35349651211379</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>38.53984631323036</v>
+        <v>17.25095367860527</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.99070923630262</v>
+        <v>61.75546258766383</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>52.1719797293278</v>
+        <v>75.89703881899686</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>13.73441300898137</v>
+        <v>29.26160874118057</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.77004374710982</v>
+        <v>47.1087180691955</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.10373119585629</v>
+        <v>50.66618266411945</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12.207931385317</v>
+        <v>18.73135208244472</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.69319174556514</v>
+        <v>45.93579175308003</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>27.23312763045774</v>
+        <v>49.56721118422388</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.08729803808311</v>
+        <v>25.68917576530385</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.72121035104069</v>
+        <v>67.37933644651591</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.99985685927294</v>
+        <v>68.53256747898538</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.4235182273013</v>
+        <v>56.00993185008608</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.51873595710748</v>
+        <v>65.39072127057091</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.12082899732309</v>
+        <v>63.8422012689955</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.27453270513985</v>
+        <v>27.33523303364797</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.6158297132308</v>
+        <v>48.56539512453489</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.75448287344233</v>
+        <v>56.59970935149232</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.82092313632921</v>
+        <v>18.78079337781765</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.01856430746683</v>
+        <v>39.83817109346009</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.41761849512636</v>
+        <v>45.347998122739</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.1778100312041</v>
+        <v>2.958603509476834</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.83795062968499</v>
+        <v>29.1229492148284</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.4454495108784</v>
+        <v>35.80360749838178</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.15332534897797</v>
+        <v>6.50900208671607</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.94920744414735</v>
+        <v>49.19331382659516</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.73440930317165</v>
+        <v>30.28112476573583</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.77005517432642</v>
+        <v>57.46146057090428</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.1037481637538</v>
+        <v>58.2683116054915</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12.20793324277767</v>
+        <v>22.39285131634191</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.69320945489077</v>
+        <v>59.38761130331144</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>27.23315122346314</v>
+        <v>61.72985722867304</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.08730319133744</v>
+        <v>30.07243701513966</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.72123018288998</v>
+        <v>82.59117777231339</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.99988216153348</v>
+        <v>81.8618833271436</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.42354010921017</v>
+        <v>81.17645681800013</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.51876287792416</v>
+        <v>89.50213188784784</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.1208586627351</v>
+        <v>88.34505716710606</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.27454453578</v>
+        <v>37.8740115075656</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>32.61585601998929</v>
+        <v>74.9898512968789</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.75451438305002</v>
+        <v>79.55300188809235</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>17.8209254339987</v>
+        <v>23.87812593035997</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.01858193519637</v>
+        <v>54.98481263472164</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>32.41764175949579</v>
+        <v>59.02989725972202</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>16.17781773340865</v>
+        <v>11.95042571893388</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.83797439864211</v>
+        <v>48.58019886724873</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.44547926000601</v>
+        <v>55.41869085719989</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.15333646864933</v>
+        <v>17.36221493248411</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.94923344124669</v>
+        <v>71.75319854571774</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.73490321025482</v>
+        <v>23.83460544089226</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.77054040804954</v>
+        <v>52.23201564082748</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.10422853717769</v>
+        <v>54.48115205206469</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>12.20844099602713</v>
+        <v>18.5514868162372</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.69370815677298</v>
+        <v>56.39953771369994</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.23364473646964</v>
+        <v>60.3890230158141</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16.08780812282095</v>
+        <v>25.76197820781113</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.72172676701977</v>
+        <v>79.56733173041408</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.00037394251725</v>
+        <v>80.60888083589259</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.42403733723815</v>
+        <v>79.19034356758493</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>33.51925634145562</v>
+        <v>86.52473834015819</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.1213498395561</v>
+        <v>87.35132599002947</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>22.27504600161999</v>
+        <v>30.03872319949332</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.61634935154544</v>
+        <v>70.46275313721699</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.75500301889721</v>
+        <v>76.37266127938537</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.82142056027182</v>
+        <v>16.54070354349495</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.01906824010156</v>
+        <v>48.82771772197285</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.41812316928001</v>
+        <v>54.74108024473318</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.17832705060229</v>
+        <v>7.24760231637973</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.83847450285397</v>
+        <v>44.67392833218145</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.44597414238361</v>
+        <v>53.63470433566846</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.15384289283875</v>
+        <v>12.4397469967457</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.94973136798502</v>
+        <v>68.09131248347492</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.73508322481807</v>
+        <v>22.76754187769362</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.77073282146924</v>
+        <v>48.98819779301718</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.10442283913184</v>
+        <v>55.50222495764967</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.20861614161791</v>
+        <v>20.62590696748794</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.69389608164438</v>
+        <v>56.4982466140977</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.23383465854409</v>
+        <v>63.86378997234652</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.08798961072462</v>
+        <v>25.86575343568805</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.72192009642434</v>
+        <v>77.09954164459933</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.00056910031445</v>
+        <v>81.84267535025296</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.42423652757926</v>
+        <v>71.50673765145092</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.51946047021374</v>
+        <v>79.85094283479947</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.12155481440018</v>
+        <v>81.87246728390363</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.27523703667072</v>
+        <v>28.03605380410346</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.61655165595311</v>
+        <v>64.36178771155764</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>35.75520707189293</v>
+        <v>74.9229736091464</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>17.82160623989441</v>
+        <v>14.78641622899974</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.01926652315382</v>
+        <v>44.28481579692826</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.41832341058992</v>
+        <v>53.7744528916148</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.17850783867085</v>
+        <v>7.327268944190141</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.83866828731829</v>
+        <v>42.15218963170585</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.44617000005922</v>
+        <v>53.70000366036035</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.15403013728451</v>
+        <v>10.09587485270231</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.94993065522072</v>
+        <v>62.39043743653997</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.29020226315707</v>
+        <v>56.85193458750791</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.79145859668282</v>
+        <v>39.99716442777279</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>37.96950547436334</v>
+        <v>56.48052609711252</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.59993322101401</v>
+        <v>57.32248698347485</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.56850515353457</v>
+        <v>10.79060702968431</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.08298000401099</v>
+        <v>45.60537893757993</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>40.27076996653834</v>
+        <v>52.12305598368084</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.41907715226474</v>
+        <v>8.010352064856509</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.64875925791911</v>
+        <v>34.97075005363016</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.0217514661535</v>
+        <v>39.81606269476734</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.04713829347308</v>
+        <v>-8.917677409247315</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.74294393598683</v>
+        <v>23.66882738881569</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>39.32571842869469</v>
+        <v>29.56789586132655</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.03299010602274</v>
+        <v>-3.018195738444174</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>38.86259707893979</v>
+        <v>47.411394330728</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>42.17906306190197</v>
+        <v>56.32736112817156</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>41.87513408755187</v>
+        <v>47.6937132831504</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>46.04629510752713</v>
+        <v>63.78925079004887</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>47.66957401242213</v>
+        <v>67.00356664241878</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.61746794356818</v>
+        <v>2.510414122468777</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>45.15793480176528</v>
+        <v>46.99182151666614</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>48.31804838457385</v>
+        <v>55.16841103913967</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.29023382068272</v>
+        <v>79.01578022083046</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.79148666985323</v>
+        <v>70.60173751303827</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.96953868127412</v>
+        <v>85.64077307311638</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.59996921824378</v>
+        <v>87.31741719662736</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.56852313865626</v>
+        <v>27.27262408115451</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>37.08301267430367</v>
+        <v>79.01219236809348</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>40.27080791349468</v>
+        <v>82.88562036984766</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.41909835121285</v>
+        <v>19.97268304632087</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.64879589531756</v>
+        <v>57.50994441059447</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>40.02179365221085</v>
+        <v>59.84949253807042</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.04716530175655</v>
+        <v>7.14367073121122</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.74298712698226</v>
+        <v>50.93914799416393</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>39.32576751026408</v>
+        <v>55.83867377438992</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.03302058370425</v>
+        <v>14.87570100704344</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.86264254245704</v>
+        <v>77.63613479304163</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>42.17911400142481</v>
+        <v>84.96622037663442</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.87518191312533</v>
+        <v>87.03275318986621</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.04634807976652</v>
+        <v>101.6257187538014</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.66962973561125</v>
+        <v>105.3261637041828</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>34.61750553935236</v>
+        <v>27.30486343497745</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>45.15798718096663</v>
+        <v>89.34325111485171</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>48.31810595466396</v>
+        <v>93.99061376652568</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>34.29072691406786</v>
+        <v>77.60281422572646</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.7919851336119</v>
+        <v>66.99953153034465</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.9700332863034</v>
+        <v>80.82293431841742</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>39.6004615137003</v>
+        <v>84.81729319205272</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.56902589187316</v>
+        <v>18.84853618129046</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37.08350713056492</v>
+        <v>73.97845631910846</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>40.27129765470893</v>
+        <v>79.46220601439941</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.41958346625412</v>
+        <v>14.49211936671154</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.64927214286855</v>
+        <v>53.56942015112125</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.02226500879263</v>
+        <v>57.46949522185537</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.04766415047782</v>
+        <v>4.323128040136002</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.74347671156062</v>
+        <v>49.34184953974724</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>39.32625187476375</v>
+        <v>56.02941634780055</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.0335165551702</v>
+        <v>11.94194140646443</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.86312996706471</v>
+        <v>76.35145870178877</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>42.17959659731812</v>
+        <v>85.57805142447268</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.87566957684119</v>
+        <v>86.01526864074066</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>46.04683189139909</v>
+        <v>99.62874940236426</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>47.67011122762462</v>
+        <v>105.5124170637249</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.61799757745804</v>
+        <v>21.14447686369195</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.15847087621581</v>
+        <v>87.04420221409083</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>48.31858495042546</v>
+        <v>93.05062477190518</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.29092809890194</v>
+        <v>74.84492431273543</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.79219059095465</v>
+        <v>55.7646994879955</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.97024378276006</v>
+        <v>70.66348643226678</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>39.60067288164672</v>
+        <v>75.67945994045812</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.56922303563778</v>
+        <v>14.72513206311786</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.08371576119522</v>
+        <v>65.12949571185209</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>40.27150808795906</v>
+        <v>74.69280359998601</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.41976802095307</v>
+        <v>14.8887320871296</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.64946925785225</v>
+        <v>51.31554108094215</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>40.022464104384</v>
+        <v>59.48978711775592</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.04784401932099</v>
+        <v>6.495052177962354</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.74366953442584</v>
+        <v>48.90218891426551</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>39.32644679813354</v>
+        <v>59.01851622839106</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.03370286423086</v>
+        <v>11.93080396709692</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.86332827971376</v>
+        <v>73.09597635558541</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.17979683082197</v>
+        <v>86.04226304293834</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>41.87587416690446</v>
+        <v>76.84117779849271</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>46.04704149006417</v>
+        <v>92.10731767096064</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>47.67032171554379</v>
+        <v>99.26489638743425</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>34.61819393559084</v>
+        <v>18.62673074193401</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>45.15867867091388</v>
+        <v>80.04960189873654</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>48.31879456682699</v>
+        <v>90.85830759210259</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17.63567398296549</v>
+        <v>11.01099047585842</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.71088044953209</v>
+        <v>12.26031113327426</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>32.11768680786964</v>
+        <v>17.83695356055384</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.16224237337079</v>
+        <v>-0.229205461133656</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.68793979879318</v>
+        <v>11.29268159574963</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>31.30534698562148</v>
+        <v>16.14542999076892</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.06844117302759</v>
+        <v>2.234563198945214</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.7392940620744</v>
+        <v>24.69301353957153</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.09024978930127</v>
+        <v>27.68751063204121</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.57994438202233</v>
+        <v>17.18171101495739</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>37.70933566595658</v>
+        <v>22.47248325737513</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>39.34721488185642</v>
+        <v>24.87380813267709</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.41378819518993</v>
+        <v>9.541525149319799</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.79891685115402</v>
+        <v>12.20251027379681</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>40.00487149579939</v>
+        <v>23.41016623669268</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.78207303038948</v>
+        <v>11.75383224200701</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.01960564856925</v>
+        <v>15.66580341204346</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.49302136246203</v>
+        <v>24.50578240712457</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>20.19071491507733</v>
+        <v>-1.400586668629099</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.89185693034133</v>
+        <v>7.788741320437342</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.57813563801578</v>
+        <v>17.0929701261093</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.19365680965192</v>
+        <v>-4.042886172010153</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.02695109958898</v>
+        <v>18.69221762882021</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.63567725780215</v>
+        <v>11.84998449582159</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.71089893836066</v>
+        <v>22.42470937447024</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>32.11771095922522</v>
+        <v>25.66701355818015</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>16.16225132595837</v>
+        <v>3.733539964091765</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.68796468918344</v>
+        <v>25.05315699395496</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.30537788573094</v>
+        <v>29.11206992903937</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.06845350124923</v>
+        <v>7.15225808517599</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.73932114665186</v>
+        <v>40.40660115275386</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.09028246291405</v>
+        <v>42.02830390233797</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.57997361514285</v>
+        <v>43.05499876965865</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.70936998522529</v>
+        <v>47.09175271602376</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.34725201720565</v>
+        <v>50.18498325433342</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.41380734781031</v>
+        <v>20.7512913454884</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.79895056245103</v>
+        <v>39.47314963714072</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>40.00491052835471</v>
+        <v>47.70756186768611</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.78208233817204</v>
+        <v>17.06284037773338</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.01963036765775</v>
+        <v>31.03513926134045</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.49305184128943</v>
+        <v>38.87623863963282</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>20.19072974024943</v>
+        <v>8.384318420063952</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.8918879088177</v>
+        <v>28.05622135819823</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.57817272390539</v>
+        <v>38.08209561010338</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.1936751332144</v>
+        <v>7.861602730139854</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.02698437880403</v>
+        <v>42.29095527218658</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.6361760184333</v>
+        <v>5.161989134344996</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.71138903409597</v>
+        <v>17.02009585443901</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>32.11819611107688</v>
+        <v>21.83192738391748</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.16276400723964</v>
+        <v>-0.3846317167378253</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.6884683295807</v>
+        <v>21.83445574069293</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>31.30587624772402</v>
+        <v>27.68053461491644</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.06896339719049</v>
+        <v>2.642263531767018</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.73982270497224</v>
+        <v>37.25910634103741</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.0907791348036</v>
+        <v>40.80129782702409</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.58047577584516</v>
+        <v>40.73726066961896</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.70986836080928</v>
+        <v>43.69698180526882</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.34774804717132</v>
+        <v>48.87668168941329</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.41431370580882</v>
+        <v>12.51741869654456</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.79944879176485</v>
+        <v>34.60614826182871</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>40.00540397675833</v>
+        <v>44.36950860298978</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>21.78258232908516</v>
+        <v>9.388166125917966</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.02012154544475</v>
+        <v>24.59921314479513</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.49353803970877</v>
+        <v>34.45291246164257</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>20.19124400365772</v>
+        <v>3.319030982509364</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.89239296923485</v>
+        <v>23.82675717523881</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.57867247232535</v>
+        <v>36.13456109529679</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.19418653982031</v>
+        <v>2.658416676396659</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.02748729726996</v>
+        <v>38.41682695116469</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>17.63636122625847</v>
+        <v>3.299529895379042</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.71158667358178</v>
+        <v>12.99583269448138</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>32.11839569023874</v>
+        <v>21.84305643814119</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.16294440887096</v>
+        <v>0.5795655001804541</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.68866154174198</v>
+        <v>20.8129593898845</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.30607151379717</v>
+        <v>29.75919003957771</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.06915014717337</v>
+        <v>1.438292324370796</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.74002132565616</v>
+        <v>33.53124270102393</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.09097963596164</v>
+        <v>40.48182722192664</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.58068052678471</v>
+        <v>31.4086183160334</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.71007808688067</v>
+        <v>35.34479154838476</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.34795862846903</v>
+        <v>41.61872234969155</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.41451026576743</v>
+        <v>8.983332998239465</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.79965666228551</v>
+        <v>26.79706351915712</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.00561363419967</v>
+        <v>40.96435870678408</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.78277336358099</v>
+        <v>6.792055929476707</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.02032521679325</v>
+        <v>19.19999626598534</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.49374372230697</v>
+        <v>32.38704799230507</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>20.19143020991668</v>
+        <v>2.181088223922021</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.89259220401373</v>
+        <v>20.05485609384988</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.57887383910803</v>
+        <v>34.64686347377042</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.19437920916029</v>
+        <v>-1.125188912788015</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>35.02769203939533</v>
+        <v>31.29336093029076</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>38.44146573716813</v>
+        <v>29.80011990122722</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>38.00239426929759</v>
+        <v>12.22624453496022</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>42.21583583095762</v>
+        <v>24.87863569509722</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>43.88305055191058</v>
+        <v>30.58188602181849</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.75949829576258</v>
+        <v>1.074675130084987</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.31879897560681</v>
+        <v>16.65984860210662</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>44.57474499338699</v>
+        <v>27.38027914328709</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.251247178202</v>
+        <v>6.901390046848096</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>40.52222044323893</v>
+        <v>16.386745475879</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>43.9698547522002</v>
+        <v>24.16052290179505</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.93460490994217</v>
+        <v>-8.135779948249077</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.67288001364</v>
+        <v>7.13078800303143</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>43.33481537139438</v>
+        <v>15.192897596639</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.9451148244336</v>
+        <v>-7.814467071113167</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.81343523748404</v>
+        <v>22.431190746911</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>46.2037956659745</v>
+        <v>34.34770485239662</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>45.95957015769692</v>
+        <v>25.41951247717254</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>50.16621584957406</v>
+        <v>37.6349931853444</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.82593209502532</v>
+        <v>45.89640811018194</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.68189402361561</v>
+        <v>-1.128793692528173</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.26817556691921</v>
+        <v>23.67065326874431</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.49649357794934</v>
+        <v>35.62870454446352</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.44150469659345</v>
+        <v>53.5689777017476</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.0024297152701</v>
+        <v>44.044540713647</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.21587645876804</v>
+        <v>55.04785194973513</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.88309404319956</v>
+        <v>61.90071839411385</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.75952362250887</v>
+        <v>18.66776730545817</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.31883907113143</v>
+        <v>51.40361968933368</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>44.57479048482777</v>
+        <v>60.02925623326709</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.25127533896201</v>
+        <v>20.20197977328982</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.52226412339198</v>
+        <v>40.2942853983179</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.96990410438656</v>
+        <v>46.01441547444759</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.93463899989197</v>
+        <v>9.807395012852712</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>39.67293037229986</v>
+        <v>36.32314823822057</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>43.33487174838768</v>
+        <v>43.92996921795003</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.94515246057489</v>
+        <v>12.26835014019418</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.81348793720765</v>
+        <v>54.8569663582073</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>46.20385396189639</v>
+        <v>65.73675416317141</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.95962531502016</v>
+        <v>67.14697920883501</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>50.1662762016381</v>
+        <v>77.65792906412909</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.82599527016697</v>
+        <v>86.70029519882664</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>38.68193891877824</v>
+        <v>25.91211022038729</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>49.26823532851886</v>
+        <v>68.49798982106793</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>52.4965586495664</v>
+        <v>77.47162648523309</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>38.44200269781483</v>
+        <v>52.11180255316432</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>38.00293313576495</v>
+        <v>40.02164627110974</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>42.2163759987197</v>
+        <v>49.71409932069474</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>43.88359121334675</v>
+        <v>58.9963125699602</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.7600312948546</v>
+        <v>9.763081076652558</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.3193384510628</v>
+        <v>45.94298326883347</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>44.57528506432054</v>
+        <v>56.37497721676147</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.2517655055869</v>
+        <v>14.57171978382164</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>40.52274542789085</v>
+        <v>36.26848406800977</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.97038043435317</v>
+        <v>43.69650312049376</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.93514297372418</v>
+        <v>6.804771289943492</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.67342508900079</v>
+        <v>34.59070163187772</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>43.33536115539368</v>
+        <v>44.14698211295246</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.94565359819675</v>
+        <v>9.243440610181498</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.81398053455611</v>
+        <v>53.55616731195249</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>46.20434164716711</v>
+        <v>66.5037096123379</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>45.96011811163369</v>
+        <v>65.91227515781102</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>50.16676512358107</v>
+        <v>75.35579954822092</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>51.82648181349545</v>
+        <v>86.69312190121443</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>38.68243605182141</v>
+        <v>19.46382082273965</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>49.2687241206044</v>
+        <v>65.96587841414512</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>52.49704265775954</v>
+        <v>76.49874791899518</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.44220939149518</v>
+        <v>47.62267972293995</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.00314431291087</v>
+        <v>26.98008334622532</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>42.21659225364154</v>
+        <v>37.69971339651121</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>43.88380834952768</v>
+        <v>47.91594625430375</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.76023411773483</v>
+        <v>4.017417707046153</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.31955280346071</v>
+        <v>35.22788538010542</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>44.57550125908837</v>
+        <v>49.47460604269875</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.25195516482134</v>
+        <v>13.52291482767035</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.52294768429384</v>
+        <v>32.53572578200087</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>43.97058472502529</v>
+        <v>44.02699097593595</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.93532800843819</v>
+        <v>7.173556347974657</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.67362311377796</v>
+        <v>32.29166118055909</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>43.33556134009849</v>
+        <v>45.01098240273367</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.94584507809729</v>
+        <v>7.186608572330957</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.81418405146054</v>
+        <v>48.24783835754857</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>46.20454713960314</v>
+        <v>64.64330779383693</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.96032816618033</v>
+        <v>54.29876591387975</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.16698022574505</v>
+        <v>65.36366091151262</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>51.8266978150142</v>
+        <v>77.91675433302498</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.68263783496533</v>
+        <v>14.72087570430176</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>49.26893738564815</v>
+        <v>56.4934170327659</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>52.49725778477578</v>
+        <v>71.58848611968554</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.07109632947083</v>
+        <v>6.546387211162145</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.87814589245811</v>
+        <v>7.906631497706289</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.19623751077414</v>
+        <v>13.31492008141101</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.63785796728664</v>
+        <v>-4.832782568434222</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.88478809567498</v>
+        <v>6.295539279192301</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.40786557354143</v>
+        <v>11.18535457048157</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.44592768260693</v>
+        <v>-2.093244512976806</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.85870800501679</v>
+        <v>20.10635064207668</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>33.122286317668</v>
+        <v>23.05736711318031</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.63023566767734</v>
+        <v>12.85182403059318</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.65715304755959</v>
+        <v>18.57418805173024</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>38.25162567221022</v>
+        <v>20.44543384802487</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.64069723507799</v>
+        <v>3.496690419095732</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.77410048190481</v>
+        <v>6.326706668713829</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>38.89725643514367</v>
+        <v>16.56563572761542</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.07496128216826</v>
+        <v>13.57377312677068</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.03985336664231</v>
+        <v>17.9459795889616</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>35.42274466807449</v>
+        <v>26.45517344317691</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.52627463591298</v>
+        <v>-0.3031381205574029</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.94380118980744</v>
+        <v>9.128892777458024</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.53388024009461</v>
+        <v>18.25778618790119</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.42868081087907</v>
+        <v>-1.990026540526426</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>33.99941280473723</v>
+        <v>20.95211784359063</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>17.07109840586267</v>
+        <v>6.766944982882169</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.87816280707523</v>
+        <v>17.26863874141512</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.19625994383545</v>
+        <v>20.33320246681308</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>15.6378655907678</v>
+        <v>-1.64673403711495</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.88481126356785</v>
+        <v>19.08832467616759</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.40789459817764</v>
+        <v>23.1266077063367</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>19.44593859059818</v>
+        <v>1.949274806136291</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.85873330522264</v>
+        <v>34.73850974974184</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.12231706464641</v>
+        <v>36.26858531779217</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.63026307640976</v>
+        <v>37.33184081283511</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.65718541455433</v>
+        <v>41.872758676144</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.25166078049636</v>
+        <v>44.40464256080926</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.64071481351501</v>
+        <v>13.64560861302414</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.77413225939766</v>
+        <v>32.18417533402493</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>38.89729339845219</v>
+        <v>39.41254428273436</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>21.07496920686884</v>
+        <v>18.37751610542995</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.03987632153789</v>
+        <v>32.60917931630169</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.42277323602504</v>
+        <v>40.07865073411674</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>19.5262879509168</v>
+        <v>8.775043418740214</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.94383025887929</v>
+        <v>28.48450824998199</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.5339152609952</v>
+        <v>38.23872951647499</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.42869753007564</v>
+        <v>9.088744236252555</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.99944411004245</v>
+        <v>43.49860803848674</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.07158518307683</v>
+        <v>0.1218126982987862</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.87864112872681</v>
+        <v>11.86761286330668</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>31.19673344691641</v>
+        <v>16.45912398963143</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.63836593932678</v>
+        <v>-5.763750634221676</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.88530278929349</v>
+        <v>15.84415695651464</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.40838097959235</v>
+        <v>21.62012248307554</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.44643621800999</v>
+        <v>-2.578745650181897</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.85922279613113</v>
+        <v>31.53127778570797</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.12280179322923</v>
+        <v>34.92944835567062</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.63075314594145</v>
+        <v>34.96745586187873</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.65767179257808</v>
+        <v>38.46528637358162</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.2521448751292</v>
+        <v>43.04156989193783</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.64120897881206</v>
+        <v>5.505290295678467</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.77461849254936</v>
+        <v>27.33436999037636</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.89777497153677</v>
+        <v>36.03609856942469</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.07545722647939</v>
+        <v>10.80305899038681</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>32.04035574161986</v>
+        <v>26.23641777046635</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.42324780301961</v>
+        <v>35.66446442190181</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.52678988516021</v>
+        <v>3.766321370660737</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.94432321284351</v>
+        <v>24.28742451982126</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.53440303796548</v>
+        <v>36.26111726362478</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.42919667358067</v>
+        <v>3.918614184821994</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.99993497085235</v>
+        <v>39.6175785796938</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.07176509628633</v>
+        <v>-1.278228135501134</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.8788331797714</v>
+        <v>8.348431093805946</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.19692738200716</v>
+        <v>16.92365772812028</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>15.63854116247327</v>
+        <v>-4.344801858661011</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.88549052075781</v>
+        <v>15.31684984691066</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.40857070586739</v>
+        <v>24.17106341664786</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>19.44661763542853</v>
+        <v>-3.229496929493759</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.8594158041918</v>
+        <v>28.39826884122281</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.12299662756304</v>
+        <v>35.18016904807246</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.6309521187116</v>
+        <v>26.49127599038863</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.65787561884301</v>
+        <v>30.95033658357403</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.25234953372911</v>
+        <v>36.59165574689749</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.64139996176781</v>
+        <v>2.663145842961772</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.77482051855597</v>
+        <v>20.34779758343931</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>38.89797873485386</v>
+        <v>33.41563893218571</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.07564275966603</v>
+        <v>8.534924683438366</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.04055361212344</v>
+        <v>21.22505051919339</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.42344762716085</v>
+        <v>33.94757410046483</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.52697070599663</v>
+        <v>2.987198716672854</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.94451675391852</v>
+        <v>20.93014719403957</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.53459864978301</v>
+        <v>35.18343931726091</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.42938380059053</v>
+        <v>0.6044620970795371</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.00013388495799</v>
+        <v>33.02594940661891</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.32482184831047</v>
+        <v>31.70553236081878</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.90271830287038</v>
+        <v>14.84193168382368</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>41.01136084499477</v>
+        <v>27.78681627844859</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.63434187444935</v>
+        <v>32.76191866152899</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.83883950875381</v>
+        <v>2.570126543164893</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>40.14160202616419</v>
+        <v>18.48384976429387</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>43.31338396961169</v>
+        <v>28.34878770360834</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.3710442247943</v>
+        <v>8.313601983269454</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>39.36822373391457</v>
+        <v>18.29808367886014</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.72577379481294</v>
+        <v>25.86443291932452</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.09032298569744</v>
+        <v>-7.249910198124777</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>38.5437284772948</v>
+        <v>8.291123990018523</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>42.10985303362902</v>
+        <v>16.29870446827812</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.0002775344851</v>
+        <v>-6.121927075134717</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.6048656386474</v>
+        <v>24.3156078380959</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>44.90651547611894</v>
+        <v>35.97081232200918</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>44.67444424772293</v>
+        <v>27.43606476314259</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>48.77640220195255</v>
+        <v>39.9567988540324</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>50.39202526062084</v>
+        <v>47.49276321835356</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>37.57675699710824</v>
+        <v>0.08420764642463396</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>47.90557169120096</v>
+        <v>25.17442378148923</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.05022169637181</v>
+        <v>36.33822889216333</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.32485868912075</v>
+        <v>54.33755169347063</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.9027517349892</v>
+        <v>45.3364792303999</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.0113993284635</v>
+        <v>56.71430703126561</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.63438314526712</v>
+        <v>62.79967430057872</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.83886307325089</v>
+        <v>19.17850454667539</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.14163999410178</v>
+        <v>51.86070316353448</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.31342719601773</v>
+        <v>59.57222706259498</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.37107054352504</v>
+        <v>20.89264413094802</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.36826518804861</v>
+        <v>41.27441016849312</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.72582077620672</v>
+        <v>46.76616967829085</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.09035509588</v>
+        <v>9.783687560886055</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.54377645390627</v>
+        <v>36.35525468585126</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.10990687489269</v>
+        <v>43.83472746009801</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.00031309581334</v>
+        <v>12.92404668915535</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>41.60491589116418</v>
+        <v>55.46637020784786</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.90657118193778</v>
+        <v>66.02350680843293</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.67449691037307</v>
+        <v>67.59603314636252</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.77645992853725</v>
+        <v>78.49815048665715</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.39208573513976</v>
+        <v>86.78443394911153</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.57679965296361</v>
+        <v>25.91313415274672</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>47.9056288456393</v>
+        <v>68.40243434659541</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>51.05028402522827</v>
+        <v>76.53928308899967</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>37.32534475763084</v>
+        <v>52.80851428381757</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.90324307627069</v>
+        <v>41.3376503332068</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.01188688547037</v>
+        <v>51.444856073815</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.63486839542376</v>
+        <v>59.91005474326275</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.83935856287212</v>
+        <v>10.41658062946124</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.14212739255991</v>
+        <v>46.46622370457195</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.31390991541147</v>
+        <v>55.92079097672615</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.37154895661482</v>
+        <v>15.33114497842985</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.36873495421234</v>
+        <v>37.27376196602771</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.72628569406222</v>
+        <v>44.42383971991285</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.09084696962886</v>
+        <v>6.808915963558693</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.54425929497727</v>
+        <v>34.6183235472667</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.11038454128337</v>
+        <v>43.99014060079062</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.00080219857108</v>
+        <v>9.900488499072086</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.6053966607506</v>
+        <v>54.11991085862363</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>44.90704716433123</v>
+        <v>66.68502106948804</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.67497786534469</v>
+        <v>66.3403126598059</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>48.77693710500361</v>
+        <v>76.21050678716588</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>50.39256059614731</v>
+        <v>86.74434786173063</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.57728483866414</v>
+        <v>19.57009342128987</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>47.90610589314873</v>
+        <v>65.89208883641038</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>51.05075640989878</v>
+        <v>75.5284199333264</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>37.32554556712537</v>
+        <v>48.840747906405</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.90344825259196</v>
+        <v>29.09429804635809</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.01209701506313</v>
+        <v>40.21327599305326</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.63507938266964</v>
+        <v>49.58165715991908</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.83955559088114</v>
+        <v>5.26204639830738</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.14233567649724</v>
+        <v>36.49857811099753</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>43.31411999056422</v>
+        <v>49.74108471441167</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.37173316426472</v>
+        <v>14.68108058716374</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.36893145991516</v>
+        <v>34.00034379490225</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.72648417556557</v>
+        <v>45.15639822228616</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.09102666426188</v>
+        <v>7.599476038231646</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.54445167174531</v>
+        <v>32.80164506274161</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.11057901573894</v>
+        <v>45.30961732834845</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.00098818193397</v>
+        <v>8.37787131993446</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.60559439578324</v>
+        <v>49.41086374234004</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.90724681784728</v>
+        <v>65.39257120853739</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.67518196244184</v>
+        <v>55.59382622265912</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.77714612580053</v>
+        <v>67.05524322856095</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.39277049213375</v>
+        <v>78.76526297151693</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.57748086826875</v>
+        <v>15.48824579875233</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.90631313173061</v>
+        <v>57.23290346168994</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>51.05096545858537</v>
+        <v>71.38670796862613</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.29873698520557</v>
+        <v>16.28648635313062</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.35767470260867</v>
+        <v>23.26068125441711</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.72761132289273</v>
+        <v>28.27812604053964</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>14.83022499590531</v>
+        <v>4.597902639044495</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.34092167665414</v>
+        <v>20.25272899592446</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.91899403988647</v>
+        <v>25.60047488204131</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.71920432399526</v>
+        <v>8.733306376145382</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.37630349242102</v>
+        <v>37.68871605745912</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>32.69057612488903</v>
+        <v>40.21728314763996</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>32.15804906596804</v>
+        <v>30.39200222605513</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.26970955911641</v>
+        <v>36.97000309820308</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.88493001274995</v>
+        <v>37.76284743913675</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.99770378878024</v>
+        <v>11.50642473083318</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.36718478110531</v>
+        <v>21.38778633592142</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.53994604809675</v>
+        <v>31.70128438611153</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>20.28441899678563</v>
+        <v>11.42277154521677</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.50340095832162</v>
+        <v>21.08120444586035</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.93889376246371</v>
+        <v>28.72449346989285</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>18.69807840508778</v>
+        <v>-3.461728068796727</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.38168185643814</v>
+        <v>10.47331847130417</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.02753153380824</v>
+        <v>19.53150641284063</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.68280816774469</v>
+        <v>-3.921591994334985</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.50000780673101</v>
+        <v>25.42928912329728</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.29873768674032</v>
+        <v>18.02569857994769</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.35769056577914</v>
+        <v>34.48301509258997</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.7276327954219</v>
+        <v>36.87705088350219</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>14.8302313710776</v>
+        <v>9.33777540155052</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.34094393634746</v>
+        <v>34.96143074794642</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.91902225318898</v>
+        <v>39.1737986106385</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>18.71921402772356</v>
+        <v>14.20320200298753</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.37632790359066</v>
+        <v>54.14498729352891</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>32.69060607269572</v>
+        <v>54.94737552137349</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.15807562665186</v>
+        <v>56.66704318518637</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.2697411781153</v>
+        <v>62.10166469003158</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.88496440386715</v>
+        <v>63.48548974214097</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.99772029414134</v>
+        <v>23.00081603565429</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.36721579536901</v>
+        <v>49.01934462711566</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.53998233064563</v>
+        <v>55.9604449379581</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>20.28442553941961</v>
+        <v>17.37824997241205</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.50342285730112</v>
+        <v>37.23285409327767</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>34.93892136656772</v>
+        <v>43.57402423124898</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>18.69809046131299</v>
+        <v>6.774186238681498</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.38171000975235</v>
+        <v>31.34514271372095</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.0275657370006</v>
+        <v>40.75738647323399</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.68282367388346</v>
+        <v>8.202547338715565</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.50003821692395</v>
+        <v>49.41456063772222</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.29923343514617</v>
+        <v>11.84751977662379</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.35817765856288</v>
+        <v>29.56140155883427</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.72811497816362</v>
+        <v>33.45926999858435</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>14.83074097471706</v>
+        <v>5.783215411342102</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.34144450649292</v>
+        <v>32.29201389916955</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.91951758247178</v>
+        <v>38.21943714522683</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>18.71972082546279</v>
+        <v>10.20406338793629</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.37682637092827</v>
+        <v>51.48004000832549</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.69109968836187</v>
+        <v>54.12702704555764</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.15857467872591</v>
+        <v>54.89106409753694</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.27023645817954</v>
+        <v>59.29259085110357</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>37.88545737318631</v>
+        <v>62.75249780174144</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.99822356355681</v>
+        <v>15.35376131797173</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.36771094351639</v>
+        <v>44.70947649844038</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.54047273225342</v>
+        <v>53.07244148420554</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>20.28492265678905</v>
+        <v>10.12811572318131</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.50391117326924</v>
+        <v>31.19785582059933</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.93940473772898</v>
+        <v>39.47854048584117</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>18.69860178187258</v>
+        <v>2.172068407773569</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.38221213745935</v>
+        <v>27.56717099468782</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.02806259093565</v>
+        <v>39.1798740425377</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.68333211839505</v>
+        <v>3.409469945878445</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.50053818305233</v>
+        <v>45.92486093579549</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.29941640860259</v>
+        <v>9.327251654800452</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.3583730731911</v>
+        <v>24.73035264206277</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.72831229544887</v>
+        <v>32.87504069582968</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>14.83091912299984</v>
+        <v>6.112147641668518</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.34163547848107</v>
+        <v>30.47522420314292</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.91971056884951</v>
+        <v>39.75093413940525</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>18.71990531777477</v>
+        <v>8.540138171541006</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.37702274628453</v>
+        <v>47.10549858106626</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.69129790729767</v>
+        <v>53.42743785520031</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.15877701092786</v>
+        <v>45.32441647355711</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.27044375025709</v>
+        <v>50.73860963032089</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>37.88566551271985</v>
+        <v>55.35483829985432</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.99841770347418</v>
+        <v>11.6719894606527</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>35.3679164027922</v>
+        <v>36.70632130212155</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.54067995161008</v>
+        <v>49.74441333976671</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>20.28511124856639</v>
+        <v>6.641649414934623</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.50411240851834</v>
+        <v>24.78546157805883</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.93960794602938</v>
+        <v>36.60380202726734</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>18.69878552520949</v>
+        <v>0.2048797405100267</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.38240891932638</v>
+        <v>22.83112750921203</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.02826146396057</v>
+        <v>36.97575210605828</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.68352231952407</v>
+        <v>-1.01898622743192</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.5007404663647</v>
+        <v>37.99728079561146</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.8768187884012</v>
+        <v>35.23018909769428</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.41849697614721</v>
+        <v>19.63638970188012</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>40.61284150002922</v>
+        <v>33.12614930880085</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>42.25662401795456</v>
+        <v>36.6929287880651</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.18384571631663</v>
+        <v>-0.8147044967017187</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>39.72479321585664</v>
+        <v>21.50949315437527</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.94679619075814</v>
+        <v>31.07091414963591</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.75890817886292</v>
+        <v>5.743452393282642</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.00997734350749</v>
+        <v>21.26431299762575</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>42.41954304998713</v>
+        <v>28.4470654239232</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.44519841279266</v>
+        <v>-10.80448016962631</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.16446404436036</v>
+        <v>9.587375300370045</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>41.78579135071662</v>
+        <v>17.98859319919768</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.43887406966025</v>
+        <v>-8.437853394814706</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.28978612436045</v>
+        <v>28.66220871155994</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>44.64225446416532</v>
+        <v>39.95791684964223</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.37806434802228</v>
+        <v>32.1393022188995</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>48.56550403652336</v>
+        <v>45.25774663822094</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.20221823526772</v>
+        <v>51.70211355277976</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>37.10949484538438</v>
+        <v>-3.918016447716351</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>47.67634386430294</v>
+        <v>27.94697901071251</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>50.87069564303243</v>
+        <v>39.34887089442054</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.8768548250331</v>
+        <v>59.01621679250252</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.41852955715314</v>
+        <v>51.51730341794817</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.61287923355788</v>
+        <v>63.46526231109073</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.25666456964018</v>
+        <v>68.08089747062178</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.18386820515989</v>
+        <v>16.76979287480959</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>39.72483042046991</v>
+        <v>56.27046625687095</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.9468387373679</v>
+        <v>63.32368925204307</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.75893349094878</v>
+        <v>19.11223952613819</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.01001811857186</v>
+        <v>45.3777679293874</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.41958944280655</v>
+        <v>50.20335412472093</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.44522964258944</v>
+        <v>7.033640499184745</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.16451148517296</v>
+        <v>38.83281301137544</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.78584475256072</v>
+        <v>46.41242434752385</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.43890879944737</v>
+        <v>11.28158415803802</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.28983586476129</v>
+        <v>60.89120727278745</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.64230974724472</v>
+        <v>70.78157732172721</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.37811654713444</v>
+        <v>73.35700149059662</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>48.56556140106026</v>
+        <v>84.88256542480613</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>50.20227837876085</v>
+        <v>92.01439776738633</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.10953681169415</v>
+        <v>22.55372360696254</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>47.67640064304188</v>
+        <v>72.24968498573571</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>50.87075767821221</v>
+        <v>80.24816437129812</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.87734990933459</v>
+        <v>57.86011775342593</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>36.41903000580039</v>
+        <v>47.94004975739168</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>40.61337581630467</v>
+        <v>58.62285817214726</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>42.25715881860646</v>
+        <v>65.654611470216</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.1843729230395</v>
+        <v>8.354514938617488</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>39.72532685641168</v>
+        <v>51.27236020531538</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.94733040761203</v>
+        <v>60.01856135846245</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.7594207469498</v>
+        <v>13.75238934373096</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.01049652606132</v>
+        <v>41.59860742350025</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.42006290950272</v>
+        <v>48.05397308300365</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.44573064036882</v>
+        <v>4.342524476989016</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.1650032379851</v>
+        <v>37.3997985462392</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>41.78633123307637</v>
+        <v>46.84340924201953</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.43940693921078</v>
+        <v>8.510142649829394</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.29032547585169</v>
+        <v>59.81809768279038</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>44.64279448091382</v>
+        <v>71.68733162998467</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>44.37860634108545</v>
+        <v>72.40853360240078</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>48.5660473351747</v>
+        <v>82.91216359102319</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>50.20276196910486</v>
+        <v>92.32321500712638</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>37.11003095825856</v>
+        <v>16.43993051599259</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>47.67688646072148</v>
+        <v>70.02966547511173</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>50.87123874589404</v>
+        <v>79.46877676046236</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.87755410612267</v>
+        <v>52.82556037966486</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.41923855256078</v>
+        <v>34.50315473622339</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>40.61358942392874</v>
+        <v>46.25580729824247</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>42.25737329929181</v>
+        <v>54.267114352871</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.18457311830356</v>
+        <v>2.25837191998696</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.72553858676494</v>
+        <v>40.21737414573516</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>42.94754395249356</v>
+        <v>53.04133823170099</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.75960804629634</v>
+        <v>12.06449532004916</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>39.01069642760213</v>
+        <v>37.11446165180817</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.4202648060125</v>
+        <v>47.82210263482455</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.44591329949072</v>
+        <v>4.122330806403884</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.16519889532633</v>
+        <v>34.38799175223144</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.7865290084109</v>
+        <v>47.22578545903821</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.43959603873514</v>
+        <v>6.060465290904748</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.29052662019743</v>
+        <v>53.97140675275054</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.64299756160549</v>
+        <v>69.52948909563034</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.37881385259219</v>
+        <v>60.65016402495806</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>48.56625987707618</v>
+        <v>72.81216648118604</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>50.20297540181467</v>
+        <v>83.47091729900936</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.11023020059793</v>
+        <v>11.58738493698946</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.67709718916169</v>
+        <v>60.45956799953686</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>50.87145130768832</v>
+        <v>74.71277583040782</v>
       </c>
     </row>
   </sheetData>
